--- a/data_output/prism_passive/all_passive_out_elong_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.6166337787468308</v>
+        <v>-1.6166337870491247</v>
       </c>
       <c r="C2">
-        <v>-4.8306230748223413</v>
+        <v>-4.8306230764821834</v>
       </c>
       <c r="D2">
-        <v>-6.1336282989061317</v>
+        <v>-6.1336282855940709</v>
       </c>
       <c r="E2">
-        <v>-8.2948681731434135</v>
+        <v>-8.294868177223492</v>
       </c>
       <c r="F2">
-        <v>-17.341877674679552</v>
+        <v>-17.341877674556329</v>
       </c>
       <c r="G2">
-        <v>9.856530703816162</v>
+        <v>9.8565307426825655</v>
       </c>
       <c r="H2">
-        <v>-5.8661605275206483</v>
+        <v>-5.8661605345840826</v>
       </c>
       <c r="I2">
-        <v>6.5128249004411032</v>
+        <v>6.5128248988155804</v>
       </c>
       <c r="J2">
-        <v>3.7851351954527388</v>
+        <v>3.7851352354605723</v>
       </c>
       <c r="K2">
-        <v>-15.833733686974369</v>
+        <v>-15.833733666384077</v>
       </c>
       <c r="L2">
-        <v>5.5721265155410862</v>
+        <v>5.5721265251223286</v>
       </c>
       <c r="M2">
-        <v>-2.320550440146576</v>
+        <v>-2.3205504466430114</v>
       </c>
       <c r="N2">
-        <v>-0.30725421289051269</v>
+        <v>-0.30725420139171433</v>
       </c>
       <c r="O2">
-        <v>11.310225905245701</v>
+        <v>11.310225909463085</v>
       </c>
       <c r="P2">
-        <v>-0.72969383148117117</v>
+        <v>-0.72969379665704537</v>
       </c>
       <c r="Q2">
-        <v>-3.6993329163256305</v>
+        <v>-3.6993328876511384</v>
       </c>
       <c r="R2">
-        <v>-0.60166030804043658</v>
+        <v>-0.60166028947588757</v>
       </c>
       <c r="S2">
-        <v>6.8959676982284464</v>
+        <v>6.8959677257372789</v>
       </c>
       <c r="T2">
-        <v>-8.1593913449948445</v>
+        <v>-8.1593913483022789</v>
       </c>
       <c r="U2">
-        <v>7.0319361053555411</v>
+        <v>7.0319361109834801</v>
       </c>
       <c r="V2">
-        <v>-10.269127989636587</v>
+        <v>-10.269127951151148</v>
       </c>
       <c r="W2">
-        <v>12.821391305770675</v>
+        <v>12.821391306072428</v>
       </c>
       <c r="X2">
-        <v>-2.6831932205389819</v>
+        <v>-2.6831932163605927</v>
       </c>
       <c r="Y2">
-        <v>-3.3081193049083311</v>
+        <v>-3.308119295922836</v>
       </c>
       <c r="Z2">
-        <v>-23.817157072259263</v>
+        <v>-23.817157070175043</v>
       </c>
       <c r="AA2">
-        <v>9.0413051275979797</v>
+        <v>9.041305163259409</v>
       </c>
       <c r="AB2">
-        <v>-5.2599338793169039</v>
+        <v>-5.259933856591374</v>
       </c>
       <c r="AC2">
-        <v>4.3060738167838366</v>
+        <v>4.3060738440563284</v>
       </c>
       <c r="AD2">
-        <v>-10.468426125565941</v>
+        <v>-10.468426093125856</v>
       </c>
       <c r="AE2">
-        <v>-35.507393762280103</v>
+        <v>-35.507393761331002</v>
       </c>
       <c r="AF2">
-        <v>-2.6657217614026933</v>
+        <v>-2.6657217347338928</v>
       </c>
       <c r="AG2">
-        <v>0.97059427335507564</v>
+        <v>0.9705942653799724</v>
       </c>
       <c r="AH2">
-        <v>-2.2102097300369508</v>
+        <v>-2.210209712599891</v>
       </c>
       <c r="AI2">
-        <v>37.566038818907629</v>
+        <v>37.566038837575974</v>
       </c>
       <c r="AJ2">
-        <v>-3.276474689209266</v>
+        <v>-3.2764747031603889</v>
       </c>
       <c r="AK2">
-        <v>-0.46472162494195857</v>
+        <v>-0.46472160462661805</v>
       </c>
       <c r="AL2">
-        <v>-10.212571582566824</v>
+        <v>-10.21257156816003</v>
       </c>
       <c r="AM2">
-        <v>-0.28279590229072937</v>
+        <v>-0.28279591323428122</v>
       </c>
       <c r="AN2">
-        <v>4.1881812140843522E-2</v>
+        <v>4.1881807647598635E-2</v>
       </c>
       <c r="AO2">
-        <v>-8.4637794954869889</v>
+        <v>-8.4637794734647969</v>
       </c>
       <c r="AP2">
-        <v>3.074665004249681</v>
+        <v>3.0746650334982348</v>
       </c>
       <c r="AQ2">
-        <v>-1.277251810517015</v>
+        <v>-1.2772517583606202</v>
       </c>
       <c r="AR2">
-        <v>1.1128378083355983</v>
+        <v>1.1128377997324606</v>
       </c>
       <c r="AS2">
-        <v>-4.8131698841290813</v>
+        <v>-4.8131698387718984</v>
       </c>
       <c r="AT2">
-        <v>-2.0539344979183625</v>
+        <v>-2.0539344807667277</v>
       </c>
       <c r="AU2">
-        <v>0.19767646728124078</v>
+        <v>0.19767649149690669</v>
       </c>
       <c r="AV2">
-        <v>-6.1374767627828817</v>
+        <v>-6.1374767223640561</v>
       </c>
       <c r="AW2">
-        <v>-2.7727978036372463</v>
+        <v>-2.7727977757770219</v>
       </c>
       <c r="AX2">
-        <v>-7.4608581484897343</v>
+        <v>-7.4608581239346563</v>
       </c>
       <c r="AY2">
-        <v>2.0658213233437692</v>
+        <v>2.0658213438192234</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.7940924672168279</v>
+        <v>2.7940925008700219</v>
       </c>
       <c r="C3">
-        <v>-1.0317872243452229</v>
+        <v>-1.031787244862997</v>
       </c>
       <c r="D3">
-        <v>0.49345137016118201</v>
+        <v>0.49345137368970882</v>
       </c>
       <c r="E3">
-        <v>-19.86492792364686</v>
+        <v>-19.864927925858865</v>
       </c>
       <c r="F3">
-        <v>7.1815979698133816</v>
+        <v>7.1815979832038295</v>
       </c>
       <c r="G3">
-        <v>0.26653901470268693</v>
+        <v>0.2665389996539318</v>
       </c>
       <c r="H3">
-        <v>2.8290176052206562</v>
+        <v>2.8290176066047223</v>
       </c>
       <c r="I3">
-        <v>1.5927395901975387</v>
+        <v>1.5927396070366626</v>
       </c>
       <c r="J3">
-        <v>-0.65543288091903662</v>
+        <v>-0.65543287644824488</v>
       </c>
       <c r="K3">
-        <v>29.140357905985809</v>
+        <v>29.140357914131485</v>
       </c>
       <c r="L3">
-        <v>24.58796315365143</v>
+        <v>24.587963140474443</v>
       </c>
       <c r="M3">
-        <v>-5.4031041340099932</v>
+        <v>-5.403043214393108</v>
       </c>
       <c r="N3">
-        <v>-0.76011146984353672</v>
+        <v>-0.76011146201642532</v>
       </c>
       <c r="O3">
-        <v>4.0596357787850366</v>
+        <v>4.0596357921674269</v>
       </c>
       <c r="P3">
-        <v>-32.670722871371595</v>
+        <v>-32.670722880882579</v>
       </c>
       <c r="Q3">
-        <v>-4.6353704933827657</v>
+        <v>-4.6353704719248583</v>
       </c>
       <c r="R3">
-        <v>4.9789226285425343</v>
+        <v>4.9789226304264389</v>
       </c>
       <c r="S3">
-        <v>8.175407630080997</v>
+        <v>8.1754076378045397</v>
       </c>
       <c r="T3">
-        <v>8.7395324057491166</v>
+        <v>8.7395324045949678</v>
       </c>
       <c r="U3">
-        <v>-6.1904260110309082</v>
+        <v>-6.1904260179256738</v>
       </c>
       <c r="V3">
-        <v>8.9813955003452293</v>
+        <v>8.9813955114920248</v>
       </c>
       <c r="W3">
-        <v>2.6282931752610779</v>
+        <v>2.6282932082455801</v>
       </c>
       <c r="X3">
-        <v>11.655915014133882</v>
+        <v>11.65591505703884</v>
       </c>
       <c r="Y3">
-        <v>6.5689505170291795</v>
+        <v>6.5689505269581332</v>
       </c>
       <c r="Z3">
-        <v>-6.3497205481129413</v>
+        <v>-6.3497205374000458</v>
       </c>
       <c r="AA3">
-        <v>-0.30567572490502926</v>
+        <v>-0.30567571612414213</v>
       </c>
       <c r="AB3">
-        <v>-3.9628536451239569</v>
+        <v>-3.962853603809009</v>
       </c>
       <c r="AC3">
-        <v>8.4522224017888448E-2</v>
+        <v>8.4522255807556235E-2</v>
       </c>
       <c r="AD3">
-        <v>-14.862847370076139</v>
+        <v>-14.862847345673089</v>
       </c>
       <c r="AE3">
-        <v>-6.869859963605677</v>
+        <v>-6.8698599708442316</v>
       </c>
       <c r="AF3">
-        <v>-0.14693710346656985</v>
+        <v>-0.14693707294537717</v>
       </c>
       <c r="AG3">
-        <v>10.068786035360105</v>
+        <v>10.068786055751971</v>
       </c>
       <c r="AH3">
-        <v>6.5973503629442689</v>
+        <v>6.5973504010121076</v>
       </c>
       <c r="AI3">
-        <v>-2.2580817083861291</v>
+        <v>-2.2580816873056051</v>
       </c>
       <c r="AJ3">
-        <v>-0.15518079046213984</v>
+        <v>-0.15518080032991577</v>
       </c>
       <c r="AK3">
-        <v>21.322681071681998</v>
+        <v>21.32268104856179</v>
       </c>
       <c r="AL3">
-        <v>-2.1703705423724386</v>
+        <v>-2.1703705309800227</v>
       </c>
       <c r="AM3">
-        <v>-1.4814484180386387</v>
+        <v>-1.4814483919142845</v>
       </c>
       <c r="AN3">
-        <v>1.2318054112834886</v>
+        <v>1.2318054222575086</v>
       </c>
       <c r="AO3">
-        <v>18.720550294072666</v>
+        <v>18.720550345709739</v>
       </c>
       <c r="AP3">
-        <v>-10.418974975687405</v>
+        <v>-10.418974949509561</v>
       </c>
       <c r="AQ3">
-        <v>-3.6752209017916186</v>
+        <v>-3.6752208923487615</v>
       </c>
       <c r="AR3">
-        <v>-2.6396050852688404</v>
+        <v>-2.6396050656928622</v>
       </c>
       <c r="AS3">
-        <v>-0.63980332503919612</v>
+        <v>-0.63980330772989191</v>
       </c>
       <c r="AT3">
-        <v>-4.5124739162971537</v>
+        <v>-4.5124738783444514</v>
       </c>
       <c r="AU3">
-        <v>-2.8799550712581095</v>
+        <v>-2.8799550378748222</v>
       </c>
       <c r="AV3">
-        <v>-2.0888010948459623</v>
+        <v>-2.0888011595967697</v>
       </c>
       <c r="AW3">
-        <v>-6.5892284395246747</v>
+        <v>-6.5892284458170138</v>
       </c>
       <c r="AX3">
-        <v>-36.915595973961828</v>
+        <v>-36.915595955016528</v>
       </c>
       <c r="AY3">
-        <v>-20.168490091400542</v>
+        <v>-20.168490092426254</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,313 +401,307 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>-1.6166337870491247</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-4.8306230764821834</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-6.1336282855940709</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-8.294868177223492</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-17.341877674556329</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.8565307426825655</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.8661605345840826</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.5128248988155804</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.7851352354605723</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-15.833733666384077</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.5721265251223286</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-2.3205504466430114</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-0.30725420139171433</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.310225909463085</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-0.72969379665704537</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-3.6993328876511384</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.60166028947588757</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>6.8959677257372789</v>
+        <v>6.8960343857372948</v>
       </c>
       <c r="T2">
-        <v>-8.1593913483022789</v>
+        <v>-8.1593580183022709</v>
       </c>
       <c r="U2">
-        <v>7.0319361109834801</v>
+        <v>7.0319694409834881</v>
       </c>
       <c r="V2">
-        <v>-10.269127951151148</v>
+        <v>-10.269094621151169</v>
       </c>
       <c r="W2">
-        <v>12.821391306072428</v>
+        <v>12.821457966072416</v>
       </c>
       <c r="X2">
-        <v>-2.6831932163605927</v>
+        <v>-2.6832598763606086</v>
       </c>
       <c r="Y2">
-        <v>-3.308119295922836</v>
+        <v>-3.308152625922844</v>
       </c>
       <c r="Z2">
-        <v>-23.817157070175043</v>
+        <v>-23.817223730175058</v>
       </c>
       <c r="AA2">
-        <v>9.041305163259409</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-5.259933856591374</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>4.3060738440563284</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-10.468426093125856</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-35.507393761331002</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-2.6657217347338928</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.9705942653799724</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-2.210209712599891</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>37.566038837575974</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-3.2764747031603889</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-0.46472160462661805</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-10.21257156816003</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.28279591323428122</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>4.1881807647598635E-2</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-8.4637794734647969</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.0746650334982348</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-1.2772517583606202</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>1.1128377997324606</v>
       </c>
       <c r="AS2">
-        <v>-4.8131698387718984</v>
+        <v>-4.8131365087718905</v>
       </c>
       <c r="AT2">
-        <v>-2.0539344807667277</v>
+        <v>-2.0539011507667198</v>
       </c>
       <c r="AU2">
         <v>0.19767649149690669</v>
       </c>
       <c r="AV2">
-        <v>-6.1374767223640561</v>
+        <v>-6.1374433923640765</v>
       </c>
       <c r="AW2">
-        <v>-2.7727977757770219</v>
+        <v>-2.7728644357770378</v>
       </c>
       <c r="AX2">
-        <v>-7.4608581239346563</v>
+        <v>-7.4609247839346438</v>
       </c>
       <c r="AY2">
-        <v>2.0658213438192234</v>
+        <v>2.0657880138192297</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2.7940925008700219</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-1.031787244862997</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.49345137368970882</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-19.864927925858865</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.1815979832038295</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2665389996539318</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.8290176066047223</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.5927396070366626</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.65543287644824488</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>29.140357914131485</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>24.587963140474443</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-5.403043214393108</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.76011146201642532</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.0596357921674269</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-32.670722880882579</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-4.6353704719248583</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4.9789226304264389</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>8.1754076378045397</v>
       </c>
       <c r="T3">
-        <v>8.7395324045949678</v>
+        <v>8.7395657345949758</v>
       </c>
       <c r="U3">
-        <v>-6.1904260179256738</v>
+        <v>-6.1903926879256659</v>
       </c>
       <c r="V3">
-        <v>8.9813955114920248</v>
+        <v>8.9813955114919963</v>
       </c>
       <c r="W3">
-        <v>2.6282932082455801</v>
+        <v>2.6282932082455943</v>
       </c>
       <c r="X3">
-        <v>11.65591505703884</v>
+        <v>11.655981717038841</v>
       </c>
       <c r="Y3">
-        <v>6.5689505269581332</v>
+        <v>32.598950526958149</v>
       </c>
       <c r="Z3">
-        <v>-6.3497205374000458</v>
+        <v>-0.90638719740005058</v>
       </c>
       <c r="AA3">
-        <v>-0.30567571612414213</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-3.962853603809009</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>8.4522255807556235E-2</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-14.862847345673089</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-6.8698599708442316</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>-0.14693707294537717</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>10.068786055751971</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.5973504010121076</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-2.2580816873056051</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.15518080032991577</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>21.32268104856179</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-2.1703705309800227</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-1.4814483919142845</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.2318054222575086</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>18.720550345709739</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-10.418974949509561</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-3.6752208923487615</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-2.6396050656928622</v>
+        <v>-2.639538405692889</v>
       </c>
       <c r="AS3">
-        <v>-0.63980330772989191</v>
+        <v>-0.63983663772989985</v>
       </c>
       <c r="AT3">
-        <v>-4.5124738783444514</v>
+        <v>-4.5124405483444434</v>
       </c>
       <c r="AU3">
         <v>-2.8799550378748222</v>
       </c>
       <c r="AV3">
-        <v>-2.0888011595967697</v>
+        <v>-2.0888678195967856</v>
       </c>
       <c r="AW3">
-        <v>-6.5892284458170138</v>
+        <v>-6.5891951158170059</v>
       </c>
       <c r="AX3">
-        <v>-36.915595955016528</v>
+        <v>-32.742329285016496</v>
       </c>
       <c r="AY3">
-        <v>-20.168490092426254</v>
+        <v>22.251476577573769</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.6165671187468149</v>
+        <v>11.310159249463084</v>
       </c>
       <c r="C2">
-        <v>-6.0656404822339027E-2</v>
+        <v>-0.60162695947590805</v>
       </c>
       <c r="D2">
-        <v>-6.1336616289061396</v>
+        <v>4.1881807647570213E-2</v>
       </c>
       <c r="E2">
-        <v>-15.608201513143428</v>
+        <v>-1.2772184283606407</v>
       </c>
       <c r="F2">
         <v>-17.341844344679544</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.7940924672168279</v>
+        <v>4.0596357921674269</v>
       </c>
       <c r="C3">
-        <v>0.21494610565477501</v>
+        <v>4.9789892904264548</v>
       </c>
       <c r="D3">
-        <v>0.49351803016116946</v>
+        <v>1.231805422257537</v>
       </c>
       <c r="E3">
-        <v>-19.864927923646832</v>
+        <v>-3.9191652716807255</v>
       </c>
       <c r="F3">
         <v>7.1815646398133737</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.6165671187468149</v>
+        <v>16.446145798608285</v>
       </c>
       <c r="C2">
-        <v>-6.0656404822339027E-2</v>
+        <v>11.310159249463084</v>
       </c>
       <c r="D2">
-        <v>-6.1336616289061396</v>
+        <v>13.240537416765733</v>
       </c>
       <c r="E2">
-        <v>-15.608201513143428</v>
+        <v>4.1881807647570213E-2</v>
       </c>
       <c r="F2">
         <v>-17.341844344679544</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.7940924672168279</v>
+        <v>33.936555197983608</v>
       </c>
       <c r="C3">
-        <v>0.21494610565477501</v>
+        <v>4.0596357921674269</v>
       </c>
       <c r="D3">
-        <v>0.49351803016116946</v>
+        <v>2.1218849380856852</v>
       </c>
       <c r="E3">
-        <v>-19.864927923646832</v>
+        <v>1.231805422257537</v>
       </c>
       <c r="F3">
         <v>7.1815646398133737</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-1.6165671270491089</v>
+      </c>
+      <c r="C2">
+        <v>-6.0656406482181069E-2</v>
+      </c>
+      <c r="D2">
+        <v>-6.1336616155940789</v>
+      </c>
+      <c r="E2">
+        <v>-15.608201517223506</v>
+      </c>
+      <c r="F2">
+        <v>-17.341844344556321</v>
+      </c>
+      <c r="G2">
+        <v>9.8565974026825529</v>
+      </c>
+      <c r="H2">
+        <v>-5.8661938645840621</v>
+      </c>
+      <c r="I2">
+        <v>6.5128248988155804</v>
+      </c>
+      <c r="J2">
+        <v>3.7851352354606007</v>
+      </c>
+      <c r="K2">
+        <v>5.2095663336159248</v>
+      </c>
+      <c r="L2">
+        <v>5.5721931851223303</v>
+      </c>
+      <c r="M2">
+        <v>-2.3205837766429909</v>
+      </c>
+      <c r="N2">
         <v>16.446145798608285</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.310159249463084</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>-0.72969379665704537</v>
+      </c>
+      <c r="Q2">
+        <v>-10.012599547651121</v>
+      </c>
+      <c r="R2">
+        <v>-0.60162695947590805</v>
+      </c>
+      <c r="S2">
+        <v>6.8960343857372948</v>
+      </c>
+      <c r="T2">
+        <v>-8.1593580183022709</v>
+      </c>
+      <c r="U2">
+        <v>7.0319694409834881</v>
+      </c>
+      <c r="V2">
+        <v>-10.269094621151169</v>
+      </c>
+      <c r="W2">
+        <v>12.821457966072416</v>
+      </c>
+      <c r="X2">
+        <v>-2.6832598763606086</v>
+      </c>
+      <c r="Y2">
+        <v>-3.308152625922844</v>
+      </c>
+      <c r="Z2">
+        <v>-23.817223730175058</v>
+      </c>
+      <c r="AA2">
+        <v>9.0413051632593948</v>
+      </c>
+      <c r="AB2">
+        <v>14.363366143408641</v>
+      </c>
+      <c r="AC2">
+        <v>4.306007184056341</v>
+      </c>
+      <c r="AD2">
+        <v>-2.9217927531258567</v>
+      </c>
+      <c r="AE2">
+        <v>-35.507393761331002</v>
+      </c>
+      <c r="AF2">
+        <v>-2.6657217347338928</v>
+      </c>
+      <c r="AG2">
+        <v>0.97062759537998033</v>
+      </c>
+      <c r="AH2">
+        <v>-2.210209712599891</v>
+      </c>
+      <c r="AI2">
+        <v>37.566072167575953</v>
+      </c>
+      <c r="AJ2">
+        <v>-1.4865413631603701</v>
+      </c>
+      <c r="AK2">
+        <v>-0.46475493462659756</v>
+      </c>
+      <c r="AL2">
+        <v>-10.212604898160038</v>
+      </c>
+      <c r="AM2">
         <v>13.240537416765733</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>4.1881807647570213E-2</v>
       </c>
-      <c r="F2">
-        <v>-17.341844344679544</v>
-      </c>
-      <c r="G2">
-        <v>9.8565973638161495</v>
-      </c>
-      <c r="H2">
-        <v>-5.8661938575206278</v>
-      </c>
-      <c r="I2">
-        <v>6.5128249004411032</v>
-      </c>
-      <c r="J2">
-        <v>3.7851351954527672</v>
-      </c>
-      <c r="K2">
-        <v>5.2095663130256327</v>
-      </c>
-      <c r="L2">
-        <v>5.5721931755410878</v>
-      </c>
-      <c r="M2">
-        <v>-2.3205837701465555</v>
-      </c>
-      <c r="N2">
-        <v>16.446145787109486</v>
-      </c>
-      <c r="O2">
-        <v>11.3101592452457</v>
-      </c>
-      <c r="P2">
-        <v>-0.72969383148117117</v>
-      </c>
-      <c r="Q2">
-        <v>-10.012599576325613</v>
-      </c>
-      <c r="R2">
-        <v>-0.60162697804045706</v>
-      </c>
-      <c r="S2">
-        <v>6.8960343582284622</v>
-      </c>
-      <c r="T2">
-        <v>-8.1593580149948366</v>
-      </c>
-      <c r="U2">
-        <v>7.0319694353555491</v>
-      </c>
-      <c r="V2">
-        <v>-10.269094659636608</v>
-      </c>
-      <c r="W2">
-        <v>12.821457965770662</v>
-      </c>
-      <c r="X2">
-        <v>-2.6832598805389978</v>
-      </c>
-      <c r="Y2">
-        <v>-3.308152634908339</v>
-      </c>
-      <c r="Z2">
-        <v>-23.817223732259279</v>
-      </c>
-      <c r="AA2">
-        <v>9.0413051275979655</v>
-      </c>
-      <c r="AB2">
-        <v>14.363366120683111</v>
-      </c>
-      <c r="AC2">
-        <v>4.3060071567838492</v>
-      </c>
-      <c r="AD2">
-        <v>-2.9217927855659411</v>
-      </c>
-      <c r="AE2">
-        <v>-35.507393762280103</v>
-      </c>
-      <c r="AF2">
-        <v>-2.6657217614026933</v>
-      </c>
-      <c r="AG2">
-        <v>0.97062760335508358</v>
-      </c>
-      <c r="AH2">
-        <v>-2.2102097300369508</v>
-      </c>
-      <c r="AI2">
-        <v>37.566072148907608</v>
-      </c>
-      <c r="AJ2">
-        <v>-1.4865413492092472</v>
-      </c>
-      <c r="AK2">
-        <v>-0.46475495494193808</v>
-      </c>
-      <c r="AL2">
-        <v>-10.212604912566832</v>
-      </c>
-      <c r="AM2">
-        <v>13.240537427709285</v>
-      </c>
-      <c r="AN2">
-        <v>4.18818121408151E-2</v>
-      </c>
       <c r="AO2">
-        <v>-8.4638128254869684</v>
+        <v>-8.4638128034647764</v>
       </c>
       <c r="AP2">
-        <v>2.4236653602659999</v>
+        <v>2.4236653822630103</v>
       </c>
       <c r="AQ2">
-        <v>-1.2772184805170355</v>
+        <v>-1.2772184283606407</v>
       </c>
       <c r="AR2">
-        <v>1.1128378083355983</v>
+        <v>1.1128377997324606</v>
       </c>
       <c r="AS2">
-        <v>-4.8131365541290734</v>
+        <v>-4.8131365087718905</v>
       </c>
       <c r="AT2">
-        <v>-2.0539011679183545</v>
+        <v>-2.0539011507667198</v>
       </c>
       <c r="AU2">
-        <v>0.19767646728124078</v>
+        <v>0.19767649149690669</v>
       </c>
       <c r="AV2">
-        <v>-6.1374434327829022</v>
+        <v>-6.1374433923640765</v>
       </c>
       <c r="AW2">
-        <v>-2.7728644636372621</v>
+        <v>-2.7728644357770378</v>
       </c>
       <c r="AX2">
-        <v>-7.4609248084897217</v>
+        <v>-7.4609247839346438</v>
       </c>
       <c r="AY2">
-        <v>2.0657879933437755</v>
+        <v>2.0657880138192297</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.7940925008700219</v>
+      </c>
+      <c r="C3">
+        <v>0.21494608513700086</v>
+      </c>
+      <c r="D3">
+        <v>0.49351803368969627</v>
+      </c>
+      <c r="E3">
+        <v>-19.864927925858836</v>
+      </c>
+      <c r="F3">
+        <v>7.1815646532038215</v>
+      </c>
+      <c r="G3">
+        <v>0.2665389996539318</v>
+      </c>
+      <c r="H3">
+        <v>2.8289509466047491</v>
+      </c>
+      <c r="I3">
+        <v>1.5926729470366467</v>
+      </c>
+      <c r="J3">
+        <v>9.8612671235517553</v>
+      </c>
+      <c r="K3">
+        <v>29.140357914131485</v>
+      </c>
+      <c r="L3">
+        <v>24.587929810474435</v>
+      </c>
+      <c r="M3">
+        <v>-5.4030098843931</v>
+      </c>
+      <c r="N3">
         <v>33.936555197983608</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>4.0596357921674269</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-32.670689550882571</v>
+      </c>
+      <c r="Q3">
+        <v>-4.6354371319248457</v>
+      </c>
+      <c r="R3">
+        <v>4.9789892904264548</v>
+      </c>
+      <c r="S3">
+        <v>8.1754076378045397</v>
+      </c>
+      <c r="T3">
+        <v>8.7395657345949758</v>
+      </c>
+      <c r="U3">
+        <v>-6.1903926879256659</v>
+      </c>
+      <c r="V3">
+        <v>8.9813955114919963</v>
+      </c>
+      <c r="W3">
+        <v>2.9991873415762882</v>
+      </c>
+      <c r="X3">
+        <v>11.655981717038841</v>
+      </c>
+      <c r="Y3">
+        <v>32.598950526958149</v>
+      </c>
+      <c r="Z3">
+        <v>-0.90638719740005058</v>
+      </c>
+      <c r="AA3">
+        <v>-0.30567571612414213</v>
+      </c>
+      <c r="AB3">
+        <v>-0.9295869338090057</v>
+      </c>
+      <c r="AC3">
+        <v>8.4522255807556235E-2</v>
+      </c>
+      <c r="AD3">
+        <v>-14.862880675673097</v>
+      </c>
+      <c r="AE3">
+        <v>-6.86985997084426</v>
+      </c>
+      <c r="AF3">
+        <v>-0.14690374294536923</v>
+      </c>
+      <c r="AG3">
+        <v>10.068786055751971</v>
+      </c>
+      <c r="AH3">
+        <v>7.2625047485927325</v>
+      </c>
+      <c r="AI3">
+        <v>-0.89148168730559973</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.15514747032990783</v>
+      </c>
+      <c r="AK3">
+        <v>21.322681048561819</v>
+      </c>
+      <c r="AL3">
+        <v>-2.1703705309800227</v>
+      </c>
+      <c r="AM3">
         <v>2.1218849380856852</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>1.231805422257537</v>
       </c>
-      <c r="F3">
-        <v>7.1815646398133737</v>
-      </c>
-      <c r="G3">
-        <v>0.26653901470268693</v>
-      </c>
-      <c r="H3">
-        <v>2.8289509452206829</v>
-      </c>
-      <c r="I3">
-        <v>1.5926729301975229</v>
-      </c>
-      <c r="J3">
-        <v>9.8612671190809635</v>
-      </c>
-      <c r="K3">
-        <v>29.140357905985809</v>
-      </c>
-      <c r="L3">
-        <v>24.587929823651422</v>
-      </c>
-      <c r="M3">
-        <v>-5.4030708040099853</v>
-      </c>
-      <c r="N3">
-        <v>33.936555190156497</v>
-      </c>
-      <c r="O3">
-        <v>4.0596357787850366</v>
-      </c>
-      <c r="P3">
-        <v>-32.670689541371587</v>
-      </c>
-      <c r="Q3">
-        <v>-4.6354371533827532</v>
-      </c>
-      <c r="R3">
-        <v>4.9789892885425502</v>
-      </c>
-      <c r="S3">
-        <v>8.175407630080997</v>
-      </c>
-      <c r="T3">
-        <v>8.7395657357491245</v>
-      </c>
-      <c r="U3">
-        <v>-6.1903926810309002</v>
-      </c>
-      <c r="V3">
-        <v>8.9813955003452008</v>
-      </c>
-      <c r="W3">
-        <v>2.9991872935468109</v>
-      </c>
-      <c r="X3">
-        <v>11.655981674133884</v>
-      </c>
-      <c r="Y3">
-        <v>32.598950517029195</v>
-      </c>
-      <c r="Z3">
-        <v>-0.90638720811294604</v>
-      </c>
-      <c r="AA3">
-        <v>-0.30567572490502926</v>
-      </c>
-      <c r="AB3">
-        <v>-0.92958697512395361</v>
-      </c>
-      <c r="AC3">
-        <v>8.4522224017888448E-2</v>
-      </c>
-      <c r="AD3">
-        <v>-14.862880700076147</v>
-      </c>
-      <c r="AE3">
-        <v>-6.8698599636057054</v>
-      </c>
-      <c r="AF3">
-        <v>-0.14690377346656192</v>
-      </c>
-      <c r="AG3">
-        <v>10.068786035360105</v>
-      </c>
-      <c r="AH3">
-        <v>7.2625047415995425</v>
-      </c>
-      <c r="AI3">
-        <v>-0.89148170838612373</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.1551474604621319</v>
-      </c>
-      <c r="AK3">
-        <v>21.322681071682027</v>
-      </c>
-      <c r="AL3">
-        <v>-2.1703705423724386</v>
-      </c>
-      <c r="AM3">
-        <v>2.121884911961331</v>
-      </c>
-      <c r="AN3">
-        <v>1.2318054112835171</v>
-      </c>
       <c r="AO3">
-        <v>18.720583624072646</v>
+        <v>18.720583675709719</v>
       </c>
       <c r="AP3">
-        <v>-10.419041635687392</v>
+        <v>-10.419041609509549</v>
       </c>
       <c r="AQ3">
-        <v>-3.9191652766277514</v>
+        <v>-3.9191652716807255</v>
       </c>
       <c r="AR3">
-        <v>-2.6395384252688672</v>
+        <v>-2.639538405692889</v>
       </c>
       <c r="AS3">
-        <v>-0.63983665503920406</v>
+        <v>-0.63983663772989985</v>
       </c>
       <c r="AT3">
-        <v>-4.5124405862971457</v>
+        <v>-4.5124405483444434</v>
       </c>
       <c r="AU3">
-        <v>-2.8799550712581095</v>
+        <v>-2.8799550378748222</v>
       </c>
       <c r="AV3">
-        <v>-2.0888677548459782</v>
+        <v>-2.0888678195967856</v>
       </c>
       <c r="AW3">
-        <v>-6.5891951095246668</v>
+        <v>-6.5891951158170059</v>
       </c>
       <c r="AX3">
-        <v>-32.742329303961796</v>
+        <v>-32.742329285016496</v>
       </c>
       <c r="AY3">
-        <v>22.25147657859948</v>
+        <v>22.251476577573769</v>
       </c>
     </row>
   </sheetData>
